--- a/promos.xlsx
+++ b/promos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="53">
   <si>
     <t>Colonne 1</t>
   </si>
@@ -20,253 +20,157 @@
     <t>Colonne 2</t>
   </si>
   <si>
-    <t>4</t>
+    <t>Référentiel 5</t>
+  </si>
+  <si>
+    <t>REF12345</t>
+  </si>
+  <si>
+    <t>Description du référentiel</t>
+  </si>
+  <si>
+    <t>url_de_photo</t>
+  </si>
+  <si>
+    <t>ACTIF</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Référentiel 6</t>
+  </si>
+  <si>
+    <t>REF123456</t>
+  </si>
+  <si>
+    <t>Référentiel 7</t>
+  </si>
+  <si>
+    <t>REF123457</t>
+  </si>
+  <si>
+    <t>Référentiel 8</t>
+  </si>
+  <si>
+    <t>REF123458</t>
+  </si>
+  <si>
+    <t>Référentiel 9</t>
+  </si>
+  <si>
+    <t>REF123459</t>
+  </si>
+  <si>
+    <t>Référentiel 11</t>
+  </si>
+  <si>
+    <t>REF1234511</t>
+  </si>
+  <si>
+    <t>Référentiel 12</t>
+  </si>
+  <si>
+    <t>REF1234512</t>
+  </si>
+  <si>
+    <t>Référentiel 13</t>
+  </si>
+  <si>
+    <t>REF1234513</t>
+  </si>
+  <si>
+    <t>Référentiel 15</t>
+  </si>
+  <si>
+    <t>REF1234515</t>
+  </si>
+  <si>
+    <t>Référentiel 16</t>
+  </si>
+  <si>
+    <t>REF1234516</t>
+  </si>
+  <si>
+    <t>Référentiel 17</t>
+  </si>
+  <si>
+    <t>REF1234517</t>
+  </si>
+  <si>
+    <t>Référentiel 19</t>
+  </si>
+  <si>
+    <t>REF1234519</t>
+  </si>
+  <si>
+    <t>Référentiel 20</t>
+  </si>
+  <si>
+    <t>REF1234520</t>
+  </si>
+  <si>
+    <t>Référentiel 22</t>
+  </si>
+  <si>
+    <t>REF1234522</t>
+  </si>
+  <si>
+    <t>Référentiel 23</t>
+  </si>
+  <si>
+    <t>REF1234523</t>
+  </si>
+  <si>
+    <t>Référentiel 25</t>
+  </si>
+  <si>
+    <t>REF1234525</t>
+  </si>
+  <si>
+    <t>Référentiel 26</t>
+  </si>
+  <si>
+    <t>REF1727020793</t>
+  </si>
+  <si>
+    <t>Référentiel Digital</t>
+  </si>
+  <si>
+    <t>REF1727023977</t>
+  </si>
+  <si>
+    <t>Description du référentiel test</t>
+  </si>
+  <si>
+    <t>Référentiel Digital2</t>
+  </si>
+  <si>
+    <t>REF1727026818</t>
+  </si>
+  <si>
+    <t>Référentiel Digital3</t>
+  </si>
+  <si>
+    <t>REF1727029787</t>
+  </si>
+  <si>
+    <t>Updated Referentiel Title</t>
+  </si>
+  <si>
+    <t>REF123</t>
+  </si>
+  <si>
+    <t>Updated description for the referentiel</t>
+  </si>
+  <si>
+    <t>updated-photo-url.jpg</t>
   </si>
   <si>
     <t>Référentiel 3</t>
   </si>
   <si>
     <t>REF1234</t>
-  </si>
-  <si>
-    <t>Description du référentiel</t>
-  </si>
-  <si>
-    <t>url_de_photo</t>
-  </si>
-  <si>
-    <t>ACTIF</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Référentiel 5</t>
-  </si>
-  <si>
-    <t>REF12345</t>
-  </si>
-  <si>
-    <t>[sn.odc.oumar.springproject.Datas.Entity.Competence@3fe02682]</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Référentiel 6</t>
-  </si>
-  <si>
-    <t>REF123456</t>
-  </si>
-  <si>
-    <t>[sn.odc.oumar.springproject.Datas.Entity.Competence@4e97866d]</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Référentiel 7</t>
-  </si>
-  <si>
-    <t>REF123457</t>
-  </si>
-  <si>
-    <t>[sn.odc.oumar.springproject.Datas.Entity.Competence@6cfef757]</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Référentiel 8</t>
-  </si>
-  <si>
-    <t>REF123458</t>
-  </si>
-  <si>
-    <t>[sn.odc.oumar.springproject.Datas.Entity.Competence@4e56cd52]</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Référentiel 9</t>
-  </si>
-  <si>
-    <t>REF123459</t>
-  </si>
-  <si>
-    <t>[sn.odc.oumar.springproject.Datas.Entity.Competence@5de1573d]</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Référentiel 11</t>
-  </si>
-  <si>
-    <t>REF1234511</t>
-  </si>
-  <si>
-    <t>[sn.odc.oumar.springproject.Datas.Entity.Competence@606edd8f]</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Référentiel 12</t>
-  </si>
-  <si>
-    <t>REF1234512</t>
-  </si>
-  <si>
-    <t>[sn.odc.oumar.springproject.Datas.Entity.Competence@336cdc9e]</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Référentiel 13</t>
-  </si>
-  <si>
-    <t>REF1234513</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Référentiel 15</t>
-  </si>
-  <si>
-    <t>REF1234515</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Référentiel 16</t>
-  </si>
-  <si>
-    <t>REF1234516</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Référentiel 17</t>
-  </si>
-  <si>
-    <t>REF1234517</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Référentiel 19</t>
-  </si>
-  <si>
-    <t>REF1234519</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Référentiel 20</t>
-  </si>
-  <si>
-    <t>REF1234520</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Référentiel 22</t>
-  </si>
-  <si>
-    <t>REF1234522</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Référentiel 23</t>
-  </si>
-  <si>
-    <t>REF1234523</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Référentiel 25</t>
-  </si>
-  <si>
-    <t>REF1234525</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Référentiel 26</t>
-  </si>
-  <si>
-    <t>REF1727020793</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Référentiel Digital</t>
-  </si>
-  <si>
-    <t>REF1727023977</t>
-  </si>
-  <si>
-    <t>Description du référentiel test</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Référentiel Digital2</t>
-  </si>
-  <si>
-    <t>REF1727026818</t>
-  </si>
-  <si>
-    <t>[sn.odc.oumar.springproject.Datas.Entity.Competence@3c681211, sn.odc.oumar.springproject.Datas.Entity.Competence@25588ab7]</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Référentiel Digital3</t>
-  </si>
-  <si>
-    <t>REF1727029787</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Updated Referentiel Title</t>
-  </si>
-  <si>
-    <t>REF123</t>
-  </si>
-  <si>
-    <t>Updated description for the referentiel</t>
-  </si>
-  <si>
-    <t>updated-photo-url.jpg</t>
-  </si>
-  <si>
-    <t>[sn.odc.oumar.springproject.Datas.Entity.Competence@5f055703]</t>
   </si>
 </sst>
 </file>
@@ -311,7 +215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -345,24 +249,18 @@
         <v>7</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>5</v>
@@ -374,24 +272,18 @@
         <v>7</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>5</v>
@@ -403,24 +295,18 @@
         <v>7</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>5</v>
@@ -432,24 +318,18 @@
         <v>7</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>5</v>
@@ -461,24 +341,18 @@
         <v>7</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>5</v>
@@ -490,24 +364,18 @@
         <v>7</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>5</v>
@@ -519,24 +387,18 @@
         <v>7</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>5</v>
@@ -548,24 +410,18 @@
         <v>7</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>5</v>
@@ -577,24 +433,18 @@
         <v>7</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>5</v>
@@ -606,24 +456,18 @@
         <v>7</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="I11" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>5</v>
@@ -635,24 +479,18 @@
         <v>7</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="I12" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>5</v>
@@ -664,24 +502,18 @@
         <v>7</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="I13" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>5</v>
@@ -693,24 +525,18 @@
         <v>7</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="I14" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>5</v>
@@ -722,24 +548,18 @@
         <v>7</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H15" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="I15" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>5</v>
@@ -751,24 +571,18 @@
         <v>7</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H16" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="I16" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>5</v>
@@ -780,24 +594,18 @@
         <v>7</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H17" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="I17" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>5</v>
@@ -809,24 +617,18 @@
         <v>7</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H18" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="I18" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s" s="0">
         <v>5</v>
@@ -838,27 +640,21 @@
         <v>7</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H19" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="I19" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>6</v>
@@ -867,27 +663,21 @@
         <v>7</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H20" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="I20" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>6</v>
@@ -896,27 +686,21 @@
         <v>7</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H21" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="I21" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>6</v>
@@ -925,42 +709,30 @@
         <v>7</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H22" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="I22" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s" s="0">
         <v>7</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H23" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="I23" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
